--- a/data/pca/factorExposure/factorExposure_2018-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.06683859793976017</v>
+        <v>0.0435389758030728</v>
       </c>
       <c r="C2">
-        <v>-0.06480342795834221</v>
+        <v>-0.003876698448077681</v>
       </c>
       <c r="D2">
-        <v>-0.05981922652325017</v>
+        <v>0.01514700592116352</v>
       </c>
       <c r="E2">
-        <v>0.04045374970242949</v>
+        <v>0.01521098389720308</v>
       </c>
       <c r="F2">
-        <v>0.1447990361209661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04475135500175911</v>
+      </c>
+      <c r="G2">
+        <v>-0.1081139685573208</v>
+      </c>
+      <c r="H2">
+        <v>0.08366675625761258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1869590975228448</v>
+        <v>0.1150468377523423</v>
       </c>
       <c r="C3">
-        <v>-0.0045900290345795</v>
+        <v>0.0398715543018497</v>
       </c>
       <c r="D3">
-        <v>-0.1274374310020267</v>
+        <v>0.05292871618331852</v>
       </c>
       <c r="E3">
-        <v>0.1278447126909988</v>
+        <v>0.008419032535734417</v>
       </c>
       <c r="F3">
-        <v>0.33682540948093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03046660758065606</v>
+      </c>
+      <c r="G3">
+        <v>-0.3362205724421958</v>
+      </c>
+      <c r="H3">
+        <v>0.3017546544233883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06566861360371408</v>
+        <v>0.05495622604203613</v>
       </c>
       <c r="C4">
-        <v>-0.03689110393189939</v>
+        <v>0.004983944897642337</v>
       </c>
       <c r="D4">
-        <v>-0.03685363858431314</v>
+        <v>0.03086574235228653</v>
       </c>
       <c r="E4">
-        <v>0.0665676788671957</v>
+        <v>-0.01756355478957285</v>
       </c>
       <c r="F4">
-        <v>0.06361199947789049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06527106544612227</v>
+      </c>
+      <c r="G4">
+        <v>-0.05899851109153154</v>
+      </c>
+      <c r="H4">
+        <v>0.02814403768323689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.00725167915087132</v>
+        <v>0.03141859660833227</v>
       </c>
       <c r="C6">
-        <v>-0.004539608143579905</v>
+        <v>0.001424362435165366</v>
       </c>
       <c r="D6">
-        <v>-0.005404076847270151</v>
+        <v>0.02305736508335782</v>
       </c>
       <c r="E6">
-        <v>-0.003390107202519439</v>
+        <v>-0.004027296064277142</v>
       </c>
       <c r="F6">
-        <v>0.00440727607746556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02996003282385281</v>
+      </c>
+      <c r="G6">
+        <v>-0.01356271177374828</v>
+      </c>
+      <c r="H6">
+        <v>-0.03703628997952393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03318524358137128</v>
+        <v>0.02627194926619559</v>
       </c>
       <c r="C7">
-        <v>-0.01913825111484309</v>
+        <v>0.002797050840741306</v>
       </c>
       <c r="D7">
-        <v>-0.04244691058640385</v>
+        <v>0.01844830028554677</v>
       </c>
       <c r="E7">
-        <v>0.02524696600379317</v>
+        <v>-0.0345256902664957</v>
       </c>
       <c r="F7">
-        <v>0.05830184523477777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02861865476767736</v>
+      </c>
+      <c r="G7">
+        <v>-0.04803903966251347</v>
+      </c>
+      <c r="H7">
+        <v>0.03834760692832478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03370915004275026</v>
+        <v>0.01210501942444524</v>
       </c>
       <c r="C8">
-        <v>-0.00887240867300236</v>
+        <v>0.005945569525990947</v>
       </c>
       <c r="D8">
-        <v>-0.02856802654719685</v>
+        <v>0.02317078478866914</v>
       </c>
       <c r="E8">
-        <v>0.05970373553457262</v>
+        <v>-0.01009194090557082</v>
       </c>
       <c r="F8">
-        <v>0.1002473776859414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03103978177882111</v>
+      </c>
+      <c r="G8">
+        <v>-0.0683117933690757</v>
+      </c>
+      <c r="H8">
+        <v>0.05940676316104752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05296117952618289</v>
+        <v>0.0443348561480957</v>
       </c>
       <c r="C9">
-        <v>-0.0329648658752557</v>
+        <v>0.007517903283403301</v>
       </c>
       <c r="D9">
-        <v>-0.01956208023979445</v>
+        <v>0.02492136912422049</v>
       </c>
       <c r="E9">
-        <v>0.07108138133511285</v>
+        <v>-0.01696717151266867</v>
       </c>
       <c r="F9">
-        <v>0.06506659851568433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04467189515739307</v>
+      </c>
+      <c r="G9">
+        <v>-0.07776891722565289</v>
+      </c>
+      <c r="H9">
+        <v>0.02644467905668607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0379583472633092</v>
+        <v>0.06149870721013629</v>
       </c>
       <c r="C10">
-        <v>-0.05716014492085373</v>
+        <v>0.02178647798100914</v>
       </c>
       <c r="D10">
-        <v>0.09577835066421719</v>
+        <v>-0.1589088647916812</v>
       </c>
       <c r="E10">
-        <v>-0.117338525955121</v>
+        <v>0.0160643106613357</v>
       </c>
       <c r="F10">
-        <v>0.08217866029653692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07421634802859993</v>
+      </c>
+      <c r="G10">
+        <v>-0.05062519022847437</v>
+      </c>
+      <c r="H10">
+        <v>0.0299325173234172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04491412484999525</v>
+        <v>0.03038880670969945</v>
       </c>
       <c r="C11">
-        <v>-0.009869468644380453</v>
+        <v>0.01543266449643695</v>
       </c>
       <c r="D11">
-        <v>-0.02792950917476308</v>
+        <v>0.03180621374313178</v>
       </c>
       <c r="E11">
-        <v>0.02190934524792457</v>
+        <v>0.005330471651149925</v>
       </c>
       <c r="F11">
-        <v>0.03833739625927367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.025383777698647</v>
+      </c>
+      <c r="G11">
+        <v>-0.04570846657603174</v>
+      </c>
+      <c r="H11">
+        <v>0.00782228415795598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04554372114356245</v>
+        <v>0.03611453209807391</v>
       </c>
       <c r="C12">
-        <v>-0.01107793975667535</v>
+        <v>0.01310614471324912</v>
       </c>
       <c r="D12">
-        <v>-0.02144963986079185</v>
+        <v>0.0300192384037852</v>
       </c>
       <c r="E12">
-        <v>0.03788455336298931</v>
+        <v>-0.005790963069287219</v>
       </c>
       <c r="F12">
-        <v>0.02048179975467809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02664186300717106</v>
+      </c>
+      <c r="G12">
+        <v>-0.01367550910581446</v>
+      </c>
+      <c r="H12">
+        <v>0.006817646414641209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04081997567550691</v>
+        <v>0.03261194587681437</v>
       </c>
       <c r="C13">
-        <v>-0.02519808249662477</v>
+        <v>-0.007294791543064145</v>
       </c>
       <c r="D13">
-        <v>-0.04472283991793093</v>
+        <v>0.006538370258346255</v>
       </c>
       <c r="E13">
-        <v>0.01253508429277464</v>
+        <v>0.015944963347941</v>
       </c>
       <c r="F13">
-        <v>0.1051774010908476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02860099821019163</v>
+      </c>
+      <c r="G13">
+        <v>-0.08194098526176395</v>
+      </c>
+      <c r="H13">
+        <v>0.04476060937573361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01688643886163521</v>
+        <v>0.01723089874470636</v>
       </c>
       <c r="C14">
-        <v>-0.02394913937391394</v>
+        <v>0.002710480316414767</v>
       </c>
       <c r="D14">
-        <v>-0.0220468098539593</v>
+        <v>8.673498982492584e-05</v>
       </c>
       <c r="E14">
-        <v>0.03280643909439424</v>
+        <v>-0.00773721559201453</v>
       </c>
       <c r="F14">
-        <v>0.05828773162498226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03000917900381228</v>
+      </c>
+      <c r="G14">
+        <v>-0.03919163441514902</v>
+      </c>
+      <c r="H14">
+        <v>0.07007475777039819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03738777629522695</v>
+        <v>0.02989781743290818</v>
       </c>
       <c r="C16">
-        <v>-0.009585262951998033</v>
+        <v>0.01491394478333098</v>
       </c>
       <c r="D16">
-        <v>-0.02509169723512768</v>
+        <v>0.02928056313273771</v>
       </c>
       <c r="E16">
-        <v>0.0219522518882143</v>
+        <v>0.0004215991957393256</v>
       </c>
       <c r="F16">
-        <v>0.03438474037815469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02435381026801634</v>
+      </c>
+      <c r="G16">
+        <v>-0.03366655973770804</v>
+      </c>
+      <c r="H16">
+        <v>0.0092642116468234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05060515777297148</v>
+        <v>0.03877446575356911</v>
       </c>
       <c r="C19">
-        <v>-0.005847542691882516</v>
+        <v>0.006776693720205068</v>
       </c>
       <c r="D19">
-        <v>-0.03864698713841359</v>
+        <v>0.0162365661497718</v>
       </c>
       <c r="E19">
-        <v>0.02664975418363058</v>
+        <v>0.004581090362735898</v>
       </c>
       <c r="F19">
-        <v>0.08883917657808714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03477697741261979</v>
+      </c>
+      <c r="G19">
+        <v>-0.08097504309458331</v>
+      </c>
+      <c r="H19">
+        <v>0.05477078473837931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01378823831917203</v>
+        <v>0.0107355130994262</v>
       </c>
       <c r="C20">
-        <v>-0.0182962542724849</v>
+        <v>-0.004688117088181784</v>
       </c>
       <c r="D20">
-        <v>-0.03336595439643023</v>
+        <v>0.0126106303491063</v>
       </c>
       <c r="E20">
-        <v>0.04557881012330046</v>
+        <v>-0.004018312494426282</v>
       </c>
       <c r="F20">
-        <v>0.05720538676008978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02530713061275735</v>
+      </c>
+      <c r="G20">
+        <v>-0.05109338067983991</v>
+      </c>
+      <c r="H20">
+        <v>0.06116816344298976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01493137381820185</v>
+        <v>0.02532136476743636</v>
       </c>
       <c r="C21">
-        <v>-0.0003739432276890355</v>
+        <v>-0.00240036400808657</v>
       </c>
       <c r="D21">
-        <v>-0.03052798051946707</v>
+        <v>0.002472234567520003</v>
       </c>
       <c r="E21">
-        <v>0.02909107418052514</v>
+        <v>-0.01112645022763724</v>
       </c>
       <c r="F21">
-        <v>0.09942374431307968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01325469362967309</v>
+      </c>
+      <c r="G21">
+        <v>-0.06718914394290602</v>
+      </c>
+      <c r="H21">
+        <v>0.03956166080270615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03434561933393345</v>
+        <v>0.02804475668088591</v>
       </c>
       <c r="C24">
-        <v>-0.009103351287646569</v>
+        <v>0.009346461636934584</v>
       </c>
       <c r="D24">
-        <v>-0.0202478257015692</v>
+        <v>0.0284855174915805</v>
       </c>
       <c r="E24">
-        <v>0.02241759403891855</v>
+        <v>-0.000278695068034469</v>
       </c>
       <c r="F24">
-        <v>0.04153077353861048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02176850642221769</v>
+      </c>
+      <c r="G24">
+        <v>-0.03622811314574825</v>
+      </c>
+      <c r="H24">
+        <v>0.002141545744941987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03909890525787701</v>
+        <v>0.03857980844513972</v>
       </c>
       <c r="C25">
-        <v>-0.00904899125562343</v>
+        <v>0.008808671913517295</v>
       </c>
       <c r="D25">
-        <v>-0.02274915662966746</v>
+        <v>0.02389269040650438</v>
       </c>
       <c r="E25">
-        <v>0.03053733419569567</v>
+        <v>-0.0009207985189809922</v>
       </c>
       <c r="F25">
-        <v>0.04134358196788186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02815408511136938</v>
+      </c>
+      <c r="G25">
+        <v>-0.04335277031671433</v>
+      </c>
+      <c r="H25">
+        <v>0.006962900389283952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02048556788716691</v>
+        <v>0.02072579676335366</v>
       </c>
       <c r="C26">
-        <v>-0.0005186944566317919</v>
+        <v>-0.01562872910652993</v>
       </c>
       <c r="D26">
-        <v>-0.04627702101411298</v>
+        <v>0.01046497913552284</v>
       </c>
       <c r="E26">
-        <v>0.01917907827504648</v>
+        <v>0.005880013638572323</v>
       </c>
       <c r="F26">
-        <v>0.05986878105141816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008611018818144692</v>
+      </c>
+      <c r="G26">
+        <v>-0.04696761258791166</v>
+      </c>
+      <c r="H26">
+        <v>0.0482764872582321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0925009688175393</v>
+        <v>0.04477513603791076</v>
       </c>
       <c r="C27">
-        <v>-0.05288181469867995</v>
+        <v>0.02234045541738426</v>
       </c>
       <c r="D27">
-        <v>-0.02041811042738957</v>
+        <v>0.008553246476099337</v>
       </c>
       <c r="E27">
-        <v>0.04859045334805378</v>
+        <v>-0.002257171952653664</v>
       </c>
       <c r="F27">
-        <v>0.05535463390358116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03295729967306801</v>
+      </c>
+      <c r="G27">
+        <v>-0.03664341793688486</v>
+      </c>
+      <c r="H27">
+        <v>0.0340434936351524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05004742527479326</v>
+        <v>0.09417418935185703</v>
       </c>
       <c r="C28">
-        <v>-0.06897447795624269</v>
+        <v>0.01923511606875972</v>
       </c>
       <c r="D28">
-        <v>0.1559181814277041</v>
+        <v>-0.2356792101555285</v>
       </c>
       <c r="E28">
-        <v>-0.1673456134603693</v>
+        <v>0.01617684427993376</v>
       </c>
       <c r="F28">
-        <v>0.07926636958390788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1092511112355064</v>
+      </c>
+      <c r="G28">
+        <v>-0.03153945894303858</v>
+      </c>
+      <c r="H28">
+        <v>0.05575652382484644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02211456896808619</v>
+        <v>0.0214668827376615</v>
       </c>
       <c r="C29">
-        <v>-0.02141934452091947</v>
+        <v>0.004668469840850922</v>
       </c>
       <c r="D29">
-        <v>-0.01980337727995432</v>
+        <v>0.001264493089915818</v>
       </c>
       <c r="E29">
-        <v>0.04107153594246019</v>
+        <v>-0.008190243304235423</v>
       </c>
       <c r="F29">
-        <v>0.04498226272993721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02973077019598562</v>
+      </c>
+      <c r="G29">
+        <v>-0.0335873750851052</v>
+      </c>
+      <c r="H29">
+        <v>0.06501624625943865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09518587214869421</v>
+        <v>0.07401895790464556</v>
       </c>
       <c r="C30">
-        <v>-0.05467056683620099</v>
+        <v>0.01213363699558649</v>
       </c>
       <c r="D30">
-        <v>-0.0637723282681172</v>
+        <v>0.04653080869141988</v>
       </c>
       <c r="E30">
-        <v>0.05164943594579825</v>
+        <v>0.04041749575109529</v>
       </c>
       <c r="F30">
-        <v>0.07416005166370866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07266486393396114</v>
+      </c>
+      <c r="G30">
+        <v>-0.08924039391687198</v>
+      </c>
+      <c r="H30">
+        <v>0.01366638382687636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05976238193545431</v>
+        <v>0.05351530815250839</v>
       </c>
       <c r="C31">
-        <v>-0.0163832295897062</v>
+        <v>0.0207885895271545</v>
       </c>
       <c r="D31">
-        <v>-0.0430238412577181</v>
+        <v>0.01158013212742218</v>
       </c>
       <c r="E31">
-        <v>-0.00495675958419055</v>
+        <v>0.01008524047198173</v>
       </c>
       <c r="F31">
-        <v>0.03285759459418105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02033480620987969</v>
+      </c>
+      <c r="G31">
+        <v>-0.01482139317836584</v>
+      </c>
+      <c r="H31">
+        <v>0.06042459083551385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.04268240370867461</v>
+        <v>0.01739454517024218</v>
       </c>
       <c r="C32">
-        <v>-0.01783718977606649</v>
+        <v>0.02001903936596658</v>
       </c>
       <c r="D32">
-        <v>-0.04759942226669076</v>
+        <v>0.01389643901198693</v>
       </c>
       <c r="E32">
-        <v>0.08090599770362399</v>
+        <v>-0.01697733064228772</v>
       </c>
       <c r="F32">
-        <v>0.07708052569775385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05603373260293804</v>
+      </c>
+      <c r="G32">
+        <v>-0.06462532149146318</v>
+      </c>
+      <c r="H32">
+        <v>0.02096268784007721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06113186270424475</v>
+        <v>0.04615763351608806</v>
       </c>
       <c r="C33">
-        <v>-0.005840387450374327</v>
+        <v>0.008756366853770762</v>
       </c>
       <c r="D33">
-        <v>-0.06328083226109622</v>
+        <v>0.03026683495217277</v>
       </c>
       <c r="E33">
-        <v>0.03371995565822193</v>
+        <v>0.02381375550692312</v>
       </c>
       <c r="F33">
-        <v>0.0886618012799527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01869643113874123</v>
+      </c>
+      <c r="G33">
+        <v>-0.07472240701556429</v>
+      </c>
+      <c r="H33">
+        <v>0.05484638198085186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.04004138218502933</v>
+        <v>0.03131344013591961</v>
       </c>
       <c r="C34">
-        <v>-0.01565146748978052</v>
+        <v>0.02323095765415085</v>
       </c>
       <c r="D34">
-        <v>-0.02648579558365605</v>
+        <v>0.02662136057280503</v>
       </c>
       <c r="E34">
-        <v>0.02917122401808831</v>
+        <v>-0.005102688532849262</v>
       </c>
       <c r="F34">
-        <v>0.0416635094674903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0286981097076769</v>
+      </c>
+      <c r="G34">
+        <v>-0.03581167389817575</v>
+      </c>
+      <c r="H34">
+        <v>0.00910804605423704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01440561406025292</v>
+        <v>0.01892716886421146</v>
       </c>
       <c r="C36">
-        <v>-0.007703822046781971</v>
+        <v>-0.002906956725299907</v>
       </c>
       <c r="D36">
-        <v>-0.007579362441237182</v>
+        <v>-0.002982893125467778</v>
       </c>
       <c r="E36">
-        <v>0.0196271184267765</v>
+        <v>-0.003082055770392318</v>
       </c>
       <c r="F36">
-        <v>0.03229962486543375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.005786149738552994</v>
+      </c>
+      <c r="G36">
+        <v>-0.02521991525383467</v>
+      </c>
+      <c r="H36">
+        <v>0.0401418264909871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009571911648271465</v>
+        <v>0.01525982052710663</v>
       </c>
       <c r="C38">
-        <v>-0.003327471711167711</v>
+        <v>0.01666789641288686</v>
       </c>
       <c r="D38">
-        <v>0.01423387525405295</v>
+        <v>-0.006108529539331639</v>
       </c>
       <c r="E38">
-        <v>0.002780279360517956</v>
+        <v>-0.005021453088672628</v>
       </c>
       <c r="F38">
-        <v>0.02758941332896355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0104036409252078</v>
+      </c>
+      <c r="G38">
+        <v>-0.03929180804939391</v>
+      </c>
+      <c r="H38">
+        <v>0.02521397249903937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05156750223492327</v>
+        <v>0.03564804853715386</v>
       </c>
       <c r="C39">
-        <v>-0.02213935646751167</v>
+        <v>0.01212584723803307</v>
       </c>
       <c r="D39">
-        <v>-0.04410355976295243</v>
+        <v>0.06280130724030393</v>
       </c>
       <c r="E39">
-        <v>0.02477084185094477</v>
+        <v>0.003768022013197406</v>
       </c>
       <c r="F39">
-        <v>0.03990048075611823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04995740369567476</v>
+      </c>
+      <c r="G39">
+        <v>-0.05900591744677486</v>
+      </c>
+      <c r="H39">
+        <v>-0.01887677568383951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04742262299783221</v>
+        <v>0.03938809174091883</v>
       </c>
       <c r="C40">
-        <v>-0.04346027302961515</v>
+        <v>0.009630760851387057</v>
       </c>
       <c r="D40">
-        <v>-0.07006270450298351</v>
+        <v>0.02560405102567931</v>
       </c>
       <c r="E40">
-        <v>0.02479276358252663</v>
+        <v>0.02158547172919254</v>
       </c>
       <c r="F40">
-        <v>0.08911875318520743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04500795956350982</v>
+      </c>
+      <c r="G40">
+        <v>-0.07068033135502051</v>
+      </c>
+      <c r="H40">
+        <v>0.04315581039763999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003615756709799559</v>
+        <v>0.005935330610702972</v>
       </c>
       <c r="C41">
-        <v>0.002983463853585977</v>
+        <v>-0.001769933965293194</v>
       </c>
       <c r="D41">
-        <v>-0.01607313708965223</v>
+        <v>-0.006615069486242319</v>
       </c>
       <c r="E41">
-        <v>0.01593247067477552</v>
+        <v>0.0006707588854647984</v>
       </c>
       <c r="F41">
-        <v>0.02247040403809175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.001275304438996898</v>
+      </c>
+      <c r="G41">
+        <v>-0.01198356422032246</v>
+      </c>
+      <c r="H41">
+        <v>0.05108206108246342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3662212682348588</v>
+        <v>0.2721628360312094</v>
       </c>
       <c r="C42">
-        <v>0.8815855151945579</v>
+        <v>-0.0529777487922738</v>
       </c>
       <c r="D42">
-        <v>-0.03254710749678427</v>
+        <v>0.521211120073958</v>
       </c>
       <c r="E42">
-        <v>-0.2383187495576091</v>
+        <v>0.1075320387718278</v>
       </c>
       <c r="F42">
-        <v>-0.01699564821977491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7857769141883667</v>
+      </c>
+      <c r="G42">
+        <v>0.04614423009776174</v>
+      </c>
+      <c r="H42">
+        <v>-0.02315757974985769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01204216137588547</v>
+        <v>0.004315488768928272</v>
       </c>
       <c r="C43">
-        <v>-0.001139529434975103</v>
+        <v>-0.003636167204725136</v>
       </c>
       <c r="D43">
-        <v>-0.02146989009302881</v>
+        <v>-0.008412734717500021</v>
       </c>
       <c r="E43">
-        <v>0.01395971015146951</v>
+        <v>0.004729818132499137</v>
       </c>
       <c r="F43">
-        <v>0.03683037569307829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005423457819666153</v>
+      </c>
+      <c r="G43">
+        <v>-0.01800415032061401</v>
+      </c>
+      <c r="H43">
+        <v>0.05485697605538595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03158568168082698</v>
+        <v>0.01651657619904523</v>
       </c>
       <c r="C44">
-        <v>-0.006508022957363002</v>
+        <v>0.003211602694394427</v>
       </c>
       <c r="D44">
-        <v>-0.05514564209401251</v>
+        <v>0.02552626258324629</v>
       </c>
       <c r="E44">
-        <v>0.0530750050812481</v>
+        <v>-0.001660869741657534</v>
       </c>
       <c r="F44">
-        <v>0.1701608166467525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01183242138506919</v>
+      </c>
+      <c r="G44">
+        <v>-0.1071711071523157</v>
+      </c>
+      <c r="H44">
+        <v>0.08984988201445641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02302307302414167</v>
+        <v>0.02213412102016491</v>
       </c>
       <c r="C46">
-        <v>-0.01685348228114135</v>
+        <v>0.001473817810558469</v>
       </c>
       <c r="D46">
-        <v>-0.04185499435876458</v>
+        <v>0.01080693036188617</v>
       </c>
       <c r="E46">
-        <v>0.03901249055242574</v>
+        <v>0.00390479636969639</v>
       </c>
       <c r="F46">
-        <v>0.04133964196006271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03727832392598396</v>
+      </c>
+      <c r="G46">
+        <v>-0.04483048106698428</v>
+      </c>
+      <c r="H46">
+        <v>0.06767536763617475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.091877678900025</v>
+        <v>0.07748146444551687</v>
       </c>
       <c r="C47">
-        <v>-0.03609393699407846</v>
+        <v>0.04036770613194034</v>
       </c>
       <c r="D47">
-        <v>-0.02896024534341117</v>
+        <v>0.01214926844291159</v>
       </c>
       <c r="E47">
-        <v>0.01802280401541565</v>
+        <v>0.006401600151776528</v>
       </c>
       <c r="F47">
-        <v>0.007252383831389338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03042379600956612</v>
+      </c>
+      <c r="G47">
+        <v>0.01658691183471907</v>
+      </c>
+      <c r="H47">
+        <v>0.07149137834748097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0154534566289176</v>
+        <v>0.01880776639896288</v>
       </c>
       <c r="C48">
-        <v>-0.008056505287033156</v>
+        <v>0.007712649656085567</v>
       </c>
       <c r="D48">
-        <v>-0.02497941537159419</v>
+        <v>0.004169068889913917</v>
       </c>
       <c r="E48">
-        <v>0.02757673375212656</v>
+        <v>0.0007540732739325228</v>
       </c>
       <c r="F48">
-        <v>0.04994281650077081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01248513188893478</v>
+      </c>
+      <c r="G48">
+        <v>-0.032888770695532</v>
+      </c>
+      <c r="H48">
+        <v>0.03675622264134588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09110450606370915</v>
+        <v>0.07401512334594715</v>
       </c>
       <c r="C50">
-        <v>-0.01802319779979877</v>
+        <v>0.03551221318119283</v>
       </c>
       <c r="D50">
-        <v>-0.037314880994928</v>
+        <v>0.02500976537942838</v>
       </c>
       <c r="E50">
-        <v>0.009574505362818859</v>
+        <v>-0.006459107250164543</v>
       </c>
       <c r="F50">
-        <v>0.006229323270797484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02433936851604378</v>
+      </c>
+      <c r="G50">
+        <v>-0.01168711868244475</v>
+      </c>
+      <c r="H50">
+        <v>0.06162565380762067</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04661871203537817</v>
+        <v>0.02805196945908457</v>
       </c>
       <c r="C51">
-        <v>0.002121830301513196</v>
+        <v>0.003929605339781868</v>
       </c>
       <c r="D51">
-        <v>-0.04320770518951943</v>
+        <v>-0.002913398108052485</v>
       </c>
       <c r="E51">
-        <v>-0.007928212138983825</v>
+        <v>0.01310095636059306</v>
       </c>
       <c r="F51">
-        <v>0.1576511809647712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01110490139269711</v>
+      </c>
+      <c r="G51">
+        <v>-0.09848531820442247</v>
+      </c>
+      <c r="H51">
+        <v>0.06413492419827219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.118327100810844</v>
+        <v>0.1050618719351964</v>
       </c>
       <c r="C53">
-        <v>-0.03755723402180078</v>
+        <v>0.05395511306253291</v>
       </c>
       <c r="D53">
-        <v>-0.0585515456328154</v>
+        <v>0.03963869455634964</v>
       </c>
       <c r="E53">
-        <v>0.02709236820093628</v>
+        <v>0.005842246515665868</v>
       </c>
       <c r="F53">
-        <v>-0.06825675287113117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05692548082691223</v>
+      </c>
+      <c r="G53">
+        <v>0.06368397357365216</v>
+      </c>
+      <c r="H53">
+        <v>0.04100958787339647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02118725691293328</v>
+        <v>0.02138197875008567</v>
       </c>
       <c r="C54">
-        <v>-0.03265564421095717</v>
+        <v>0.01445888488764317</v>
       </c>
       <c r="D54">
-        <v>-0.009814143984108544</v>
+        <v>-0.0256892497860092</v>
       </c>
       <c r="E54">
-        <v>0.01661645904227353</v>
+        <v>-0.003182111224276916</v>
       </c>
       <c r="F54">
-        <v>0.07688477681621873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01793017931519425</v>
+      </c>
+      <c r="G54">
+        <v>-0.04106102788799729</v>
+      </c>
+      <c r="H54">
+        <v>0.08227008513723084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1074845666664439</v>
+        <v>0.09046991310519752</v>
       </c>
       <c r="C55">
-        <v>-0.0277698190558759</v>
+        <v>0.04719177176899197</v>
       </c>
       <c r="D55">
-        <v>-0.01279205782628172</v>
+        <v>0.03931928157183669</v>
       </c>
       <c r="E55">
-        <v>0.04500557344882868</v>
+        <v>-0.008012988784287635</v>
       </c>
       <c r="F55">
-        <v>-0.05925477284564514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04704670370943676</v>
+      </c>
+      <c r="G55">
+        <v>0.04899088048751035</v>
+      </c>
+      <c r="H55">
+        <v>0.04462023127720535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.142013297050195</v>
+        <v>0.1334340219436591</v>
       </c>
       <c r="C56">
-        <v>-0.07268188913185171</v>
+        <v>0.07550150796456591</v>
       </c>
       <c r="D56">
-        <v>-0.0366430486004953</v>
+        <v>0.04479707826866307</v>
       </c>
       <c r="E56">
-        <v>0.04661871259336325</v>
+        <v>-0.001218948556132915</v>
       </c>
       <c r="F56">
-        <v>-0.1609649046752368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.0814340977770619</v>
+      </c>
+      <c r="G56">
+        <v>0.1116223148909961</v>
+      </c>
+      <c r="H56">
+        <v>-9.573523353592765e-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.05299101003762809</v>
+        <v>0.04658235101750061</v>
       </c>
       <c r="C57">
-        <v>-0.01799692087950982</v>
+        <v>-0.002256689437830603</v>
       </c>
       <c r="D57">
-        <v>-0.04906828979837519</v>
+        <v>0.02749136772557576</v>
       </c>
       <c r="E57">
-        <v>0.01797537111096803</v>
+        <v>0.01165616723931374</v>
       </c>
       <c r="F57">
-        <v>0.0745718353395157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03335527793792955</v>
+      </c>
+      <c r="G57">
+        <v>-0.06773820083604916</v>
+      </c>
+      <c r="H57">
+        <v>0.01578671913382434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2298036632388324</v>
+        <v>0.1547507242340371</v>
       </c>
       <c r="C58">
-        <v>-0.06245021654438824</v>
+        <v>0.06209996887932075</v>
       </c>
       <c r="D58">
-        <v>-0.1305661939702393</v>
+        <v>0.09824223080775749</v>
       </c>
       <c r="E58">
-        <v>0.05432069856651336</v>
+        <v>0.1017869632070891</v>
       </c>
       <c r="F58">
-        <v>0.2493067808804854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.06019805959167453</v>
+      </c>
+      <c r="G58">
+        <v>-0.4283537976351721</v>
+      </c>
+      <c r="H58">
+        <v>0.3040227305864885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05490938171824433</v>
+        <v>0.09940915292168412</v>
       </c>
       <c r="C59">
-        <v>-0.09649641308717369</v>
+        <v>0.02914240113904464</v>
       </c>
       <c r="D59">
-        <v>0.1159734316258879</v>
+        <v>-0.2282294298646313</v>
       </c>
       <c r="E59">
-        <v>-0.1223944514772855</v>
+        <v>0.0322810334098877</v>
       </c>
       <c r="F59">
-        <v>0.0543463351176496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08107401105994697</v>
+      </c>
+      <c r="G59">
+        <v>-0.03912724129083039</v>
+      </c>
+      <c r="H59">
+        <v>0.02464085925064176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.171079933417244</v>
+        <v>0.1743625934510617</v>
       </c>
       <c r="C60">
-        <v>-0.08466799465130401</v>
+        <v>0.06000919419838329</v>
       </c>
       <c r="D60">
-        <v>-0.007890228131460838</v>
+        <v>-0.03067834228511236</v>
       </c>
       <c r="E60">
-        <v>-0.07810023707257382</v>
+        <v>0.05870643844073968</v>
       </c>
       <c r="F60">
-        <v>0.1075322878262761</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06131003929035553</v>
+      </c>
+      <c r="G60">
+        <v>-0.1937249477861823</v>
+      </c>
+      <c r="H60">
+        <v>-0.3639893787164256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03142879379360636</v>
+        <v>0.02991064939448267</v>
       </c>
       <c r="C61">
-        <v>-0.01246790156965226</v>
+        <v>0.0136035035549806</v>
       </c>
       <c r="D61">
-        <v>-0.01815255755164854</v>
+        <v>0.03341991067493768</v>
       </c>
       <c r="E61">
-        <v>0.0219241254130315</v>
+        <v>-0.001348273114979395</v>
       </c>
       <c r="F61">
-        <v>0.03743177068097395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.034270384528325</v>
+      </c>
+      <c r="G61">
+        <v>-0.03983308443836786</v>
+      </c>
+      <c r="H61">
+        <v>-0.01455328610668842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02339201748795213</v>
+        <v>0.0201895532975622</v>
       </c>
       <c r="C63">
-        <v>-0.02455298666399091</v>
+        <v>0.003638519599093972</v>
       </c>
       <c r="D63">
-        <v>-0.03751920240889622</v>
+        <v>0.01067494403584456</v>
       </c>
       <c r="E63">
-        <v>0.03678772570834456</v>
+        <v>0.0002107947399636513</v>
       </c>
       <c r="F63">
-        <v>0.04316346100432305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02836503650181186</v>
+      </c>
+      <c r="G63">
+        <v>-0.02955509090908067</v>
+      </c>
+      <c r="H63">
+        <v>0.0592769965929168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05307082155459841</v>
+        <v>0.04859491377152255</v>
       </c>
       <c r="C64">
-        <v>-0.01764900516085546</v>
+        <v>0.01963565507260746</v>
       </c>
       <c r="D64">
-        <v>-0.02979897339990797</v>
+        <v>0.03891710014334857</v>
       </c>
       <c r="E64">
-        <v>0.06908159531967097</v>
+        <v>-0.008435536918544366</v>
       </c>
       <c r="F64">
-        <v>0.05559509405357649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03575582345596063</v>
+      </c>
+      <c r="G64">
+        <v>-0.04030466729996159</v>
+      </c>
+      <c r="H64">
+        <v>0.03163777935124153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.006678653406511797</v>
+        <v>0.03705796201772354</v>
       </c>
       <c r="C65">
-        <v>-0.003090449758645965</v>
+        <v>0.001951236473278433</v>
       </c>
       <c r="D65">
-        <v>-0.003425687461981977</v>
+        <v>0.02646995445138486</v>
       </c>
       <c r="E65">
-        <v>-0.00525912602353784</v>
+        <v>-0.003847172615409669</v>
       </c>
       <c r="F65">
-        <v>0.002649621639344331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03061680535531046</v>
+      </c>
+      <c r="G65">
+        <v>-0.009380795795931519</v>
+      </c>
+      <c r="H65">
+        <v>-0.04358925017758355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05903515673745976</v>
+        <v>0.04619285428807509</v>
       </c>
       <c r="C66">
-        <v>-0.03330651425653638</v>
+        <v>0.02022234799357331</v>
       </c>
       <c r="D66">
-        <v>-0.05431684989921853</v>
+        <v>0.07163839702937283</v>
       </c>
       <c r="E66">
-        <v>0.04471626025683631</v>
+        <v>0.01127271543585812</v>
       </c>
       <c r="F66">
-        <v>0.05774327045305951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07330019296330928</v>
+      </c>
+      <c r="G66">
+        <v>-0.06275529228340584</v>
+      </c>
+      <c r="H66">
+        <v>-0.02951321056629784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02651258753192487</v>
+        <v>0.03346088002068423</v>
       </c>
       <c r="C67">
-        <v>-0.01237317673054231</v>
+        <v>0.02096923766717069</v>
       </c>
       <c r="D67">
-        <v>0.02349618263190831</v>
+        <v>-0.01740984268815021</v>
       </c>
       <c r="E67">
-        <v>-0.01349360231500236</v>
+        <v>-0.0004036819971063001</v>
       </c>
       <c r="F67">
-        <v>0.03258033213440764</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01075718542955424</v>
+      </c>
+      <c r="G67">
+        <v>-0.03206914663234327</v>
+      </c>
+      <c r="H67">
+        <v>0.008578087595405102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.057611824800297</v>
+        <v>0.09915153965282636</v>
       </c>
       <c r="C68">
-        <v>-0.07878379410940466</v>
+        <v>0.006014472105878855</v>
       </c>
       <c r="D68">
-        <v>0.1609371902107282</v>
+        <v>-0.220537689024589</v>
       </c>
       <c r="E68">
-        <v>-0.1624618774592101</v>
+        <v>0.02494219288458435</v>
       </c>
       <c r="F68">
-        <v>0.01944141694736336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1042925243999334</v>
+      </c>
+      <c r="G68">
+        <v>-0.00992606604126688</v>
+      </c>
+      <c r="H68">
+        <v>0.0401606391926024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06985282080371789</v>
+        <v>0.06154980570345685</v>
       </c>
       <c r="C69">
-        <v>-0.03745988384727579</v>
+        <v>0.03672858012154875</v>
       </c>
       <c r="D69">
-        <v>-0.01457342052618532</v>
+        <v>0.00768591090608756</v>
       </c>
       <c r="E69">
-        <v>-0.0119535378836161</v>
+        <v>0.007939279840223443</v>
       </c>
       <c r="F69">
-        <v>0.01062210173592334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02592006132198054</v>
+      </c>
+      <c r="G69">
+        <v>0.003078742147814279</v>
+      </c>
+      <c r="H69">
+        <v>0.04847519315159371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05861149215486092</v>
+        <v>0.09567305045551164</v>
       </c>
       <c r="C71">
-        <v>-0.09415867012077182</v>
+        <v>0.01431840896801923</v>
       </c>
       <c r="D71">
-        <v>0.1940189868582523</v>
+        <v>-0.2294963128432819</v>
       </c>
       <c r="E71">
-        <v>-0.2524727300265714</v>
+        <v>0.03209446395404197</v>
       </c>
       <c r="F71">
-        <v>0.08311983133681457</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1234740870734483</v>
+      </c>
+      <c r="G71">
+        <v>-0.02823694924355423</v>
+      </c>
+      <c r="H71">
+        <v>0.01112239495097526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.120347516950992</v>
+        <v>0.1067416345502212</v>
       </c>
       <c r="C72">
-        <v>-0.1083447206014719</v>
+        <v>0.06415203516452177</v>
       </c>
       <c r="D72">
-        <v>-0.02956930834824799</v>
+        <v>0.0403831589153074</v>
       </c>
       <c r="E72">
-        <v>0.04081885381115887</v>
+        <v>0.01253247678375518</v>
       </c>
       <c r="F72">
-        <v>0.03091810603300309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.118312943872723</v>
+      </c>
+      <c r="G72">
+        <v>-0.1100586468236419</v>
+      </c>
+      <c r="H72">
+        <v>-0.1164848548564519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2517814662601442</v>
+        <v>0.2453784014007484</v>
       </c>
       <c r="C73">
-        <v>-0.1151766347025196</v>
+        <v>0.07983047953073963</v>
       </c>
       <c r="D73">
-        <v>0.02939097891942722</v>
+        <v>-0.01607422349058832</v>
       </c>
       <c r="E73">
-        <v>-0.1251146222503255</v>
+        <v>0.09272573823717706</v>
       </c>
       <c r="F73">
-        <v>0.1873384367708354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06828778004604975</v>
+      </c>
+      <c r="G73">
+        <v>-0.2740104673813348</v>
+      </c>
+      <c r="H73">
+        <v>-0.5258482423611911</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1297053817344112</v>
+        <v>0.1219259799027833</v>
       </c>
       <c r="C74">
-        <v>-0.0364138440193207</v>
+        <v>0.06773224329774495</v>
       </c>
       <c r="D74">
-        <v>-0.02702077758099562</v>
+        <v>0.04449756190041507</v>
       </c>
       <c r="E74">
-        <v>0.01398776049151049</v>
+        <v>0.007774564972061698</v>
       </c>
       <c r="F74">
-        <v>-0.1134129940378839</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06270362067441214</v>
+      </c>
+      <c r="G74">
+        <v>0.08499734305507642</v>
+      </c>
+      <c r="H74">
+        <v>-0.01003170749764179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2304452580316594</v>
+        <v>0.2358301526818399</v>
       </c>
       <c r="C75">
-        <v>-0.1051224006524162</v>
+        <v>0.1330332165070525</v>
       </c>
       <c r="D75">
-        <v>-0.06281109803193205</v>
+        <v>0.04617473463058373</v>
       </c>
       <c r="E75">
-        <v>0.01002243664989497</v>
+        <v>0.03060016351105778</v>
       </c>
       <c r="F75">
-        <v>-0.1835633132704449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.121475262549975</v>
+      </c>
+      <c r="G75">
+        <v>0.1878345361736233</v>
+      </c>
+      <c r="H75">
+        <v>0.02246959340772433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2487231360955728</v>
+        <v>0.2196319010010973</v>
       </c>
       <c r="C76">
-        <v>-0.1212019727443178</v>
+        <v>0.1287525792230901</v>
       </c>
       <c r="D76">
-        <v>-0.006281204762543279</v>
+        <v>0.04212287636915567</v>
       </c>
       <c r="E76">
-        <v>0.04812244027878581</v>
+        <v>-0.01448231794230853</v>
       </c>
       <c r="F76">
-        <v>-0.2172975302209758</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1320867131133119</v>
+      </c>
+      <c r="G76">
+        <v>0.207265468755527</v>
+      </c>
+      <c r="H76">
+        <v>0.03959730332625356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.148945946336863</v>
+        <v>0.09219358870546343</v>
       </c>
       <c r="C77">
-        <v>0.01198685903448216</v>
+        <v>0.02622163195110791</v>
       </c>
       <c r="D77">
-        <v>-0.08098708335171917</v>
+        <v>0.0748521185147203</v>
       </c>
       <c r="E77">
-        <v>0.04286189326883216</v>
+        <v>0.01301218513805953</v>
       </c>
       <c r="F77">
-        <v>0.2076645200189393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.008235819599521592</v>
+      </c>
+      <c r="G77">
+        <v>-0.1413804894391057</v>
+      </c>
+      <c r="H77">
+        <v>0.2125414342396732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06746132993827822</v>
+        <v>0.04808093978415716</v>
       </c>
       <c r="C78">
-        <v>-0.008029669863057726</v>
+        <v>0.02057800063753941</v>
       </c>
       <c r="D78">
-        <v>-0.07087871501396177</v>
+        <v>0.05980867424523539</v>
       </c>
       <c r="E78">
-        <v>0.08261650653953739</v>
+        <v>-0.003078796032071197</v>
       </c>
       <c r="F78">
-        <v>0.04204070411102502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04971599137736413</v>
+      </c>
+      <c r="G78">
+        <v>-0.06352000301063987</v>
+      </c>
+      <c r="H78">
+        <v>0.02996067646405163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1559372796662948</v>
+        <v>0.1666859442803485</v>
       </c>
       <c r="C80">
-        <v>0.145550339997423</v>
+        <v>0.06266479692656096</v>
       </c>
       <c r="D80">
-        <v>0.7150878146483395</v>
+        <v>-0.008487120072573186</v>
       </c>
       <c r="E80">
-        <v>0.643740916181584</v>
+        <v>-0.965493788960601</v>
       </c>
       <c r="F80">
-        <v>0.05674964097799842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.09791047240098752</v>
+      </c>
+      <c r="G80">
+        <v>-0.09195610501360424</v>
+      </c>
+      <c r="H80">
+        <v>-0.03701265931208259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1625543597726572</v>
+        <v>0.1614740674695047</v>
       </c>
       <c r="C81">
-        <v>-0.09086256143475714</v>
+        <v>0.09124239004888066</v>
       </c>
       <c r="D81">
-        <v>-0.03593690278543877</v>
+        <v>0.03317744814058226</v>
       </c>
       <c r="E81">
-        <v>0.02982887167600617</v>
+        <v>0.005632173256241415</v>
       </c>
       <c r="F81">
-        <v>-0.2028253135933423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09292133220058396</v>
+      </c>
+      <c r="G81">
+        <v>0.1411481107806698</v>
+      </c>
+      <c r="H81">
+        <v>0.03866657871307913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05703148714287433</v>
+        <v>0.04270085870791718</v>
       </c>
       <c r="C83">
-        <v>0.01379460330082719</v>
+        <v>0.01428481178221564</v>
       </c>
       <c r="D83">
-        <v>-0.05458838641279599</v>
+        <v>0.02665993891197741</v>
       </c>
       <c r="E83">
-        <v>0.02556907492666453</v>
+        <v>0.01274555898838837</v>
       </c>
       <c r="F83">
-        <v>0.06958391667031512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01671245230492422</v>
+      </c>
+      <c r="G83">
+        <v>-0.05962186090431151</v>
+      </c>
+      <c r="H83">
+        <v>0.03837627448959582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2316376231983341</v>
+        <v>0.224020951680469</v>
       </c>
       <c r="C85">
-        <v>-0.08181595597116158</v>
+        <v>0.114480766151077</v>
       </c>
       <c r="D85">
-        <v>-0.03401001420532377</v>
+        <v>0.06943830992893071</v>
       </c>
       <c r="E85">
-        <v>0.02794936874017995</v>
+        <v>0.01881854766028692</v>
       </c>
       <c r="F85">
-        <v>-0.1909706019867339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1156134439451108</v>
+      </c>
+      <c r="G85">
+        <v>0.1765730980377991</v>
+      </c>
+      <c r="H85">
+        <v>0.0299134297479718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01560168030015281</v>
+        <v>0.01264460971684838</v>
       </c>
       <c r="C86">
-        <v>0.006140923291665719</v>
+        <v>0.0003827477823797922</v>
       </c>
       <c r="D86">
-        <v>-0.04105089114171369</v>
+        <v>0.02219310756031442</v>
       </c>
       <c r="E86">
-        <v>0.06210671132655553</v>
+        <v>0.006226037357956426</v>
       </c>
       <c r="F86">
-        <v>0.0937082287494168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02017257870460204</v>
+      </c>
+      <c r="G86">
+        <v>-0.1003570570902602</v>
+      </c>
+      <c r="H86">
+        <v>0.05664155797879089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01651394140943442</v>
+        <v>0.02229570109539267</v>
       </c>
       <c r="C87">
-        <v>-0.03133958520790076</v>
+        <v>0.002860349619949848</v>
       </c>
       <c r="D87">
-        <v>0.03978368420978942</v>
+        <v>-0.008860918418203722</v>
       </c>
       <c r="E87">
-        <v>-0.03922781276812889</v>
+        <v>-0.0005273347704967644</v>
       </c>
       <c r="F87">
-        <v>0.07165705003120564</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.009482829507250028</v>
+      </c>
+      <c r="G87">
+        <v>-0.09364461839589137</v>
+      </c>
+      <c r="H87">
+        <v>0.001327056329705338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01391867456176422</v>
+        <v>0.03778584874795148</v>
       </c>
       <c r="C88">
-        <v>-0.01987423928141746</v>
+        <v>-0.006972837311943673</v>
       </c>
       <c r="D88">
-        <v>0.01308565657150096</v>
+        <v>-0.01741716656175407</v>
       </c>
       <c r="E88">
-        <v>0.01208025438944069</v>
+        <v>-0.004683688002751336</v>
       </c>
       <c r="F88">
-        <v>0.03506040562435895</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01214032396386883</v>
+      </c>
+      <c r="G88">
+        <v>-0.009422221033629444</v>
+      </c>
+      <c r="H88">
+        <v>0.03199411352562939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08506833882835738</v>
+        <v>0.1547569561549685</v>
       </c>
       <c r="C89">
-        <v>-0.09427854776678904</v>
+        <v>0.02161712306842403</v>
       </c>
       <c r="D89">
-        <v>0.1939591547982819</v>
+        <v>-0.3461413715391476</v>
       </c>
       <c r="E89">
-        <v>-0.2590218018518953</v>
+        <v>0.0667663266852727</v>
       </c>
       <c r="F89">
-        <v>0.1078494312385949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1583123966485271</v>
+      </c>
+      <c r="G89">
+        <v>-0.02369394464229608</v>
+      </c>
+      <c r="H89">
+        <v>0.08758807829253763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07916222855058258</v>
+        <v>0.1196151595005965</v>
       </c>
       <c r="C90">
-        <v>-0.09564194378440505</v>
+        <v>0.01503967316719815</v>
       </c>
       <c r="D90">
-        <v>0.2280852122051416</v>
+        <v>-0.2982492178164499</v>
       </c>
       <c r="E90">
-        <v>-0.2086858233262145</v>
+        <v>0.0396399510667971</v>
       </c>
       <c r="F90">
-        <v>0.06489257149486495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1512540432950855</v>
+      </c>
+      <c r="G90">
+        <v>0.01725172097667703</v>
+      </c>
+      <c r="H90">
+        <v>0.04866913298199784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2963718180255002</v>
+        <v>0.2533158701841408</v>
       </c>
       <c r="C91">
-        <v>-0.08613070304513515</v>
+        <v>0.1405436230896817</v>
       </c>
       <c r="D91">
-        <v>-0.07478769600494589</v>
+        <v>0.07837868818349247</v>
       </c>
       <c r="E91">
-        <v>0.04110789223404969</v>
+        <v>0.0223508324984866</v>
       </c>
       <c r="F91">
-        <v>-0.2893928952357123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1230754787936562</v>
+      </c>
+      <c r="G91">
+        <v>0.2550012412900184</v>
+      </c>
+      <c r="H91">
+        <v>0.06361375547102548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1194652402905809</v>
+        <v>0.1854701810830735</v>
       </c>
       <c r="C92">
-        <v>-0.08070232869199054</v>
+        <v>0.09112934686947156</v>
       </c>
       <c r="D92">
-        <v>0.2423917546800814</v>
+        <v>-0.2932134676504798</v>
       </c>
       <c r="E92">
-        <v>-0.2130600277202059</v>
+        <v>0.02345442256858789</v>
       </c>
       <c r="F92">
-        <v>0.04869574054886004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1407657275981988</v>
+      </c>
+      <c r="G92">
+        <v>0.05439368314649596</v>
+      </c>
+      <c r="H92">
+        <v>0.1416788492920479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.080075101826749</v>
+        <v>0.1415692052411813</v>
       </c>
       <c r="C93">
-        <v>-0.07911967005354126</v>
+        <v>0.02527671090988607</v>
       </c>
       <c r="D93">
-        <v>0.2771309381381278</v>
+        <v>-0.3339296486043017</v>
       </c>
       <c r="E93">
-        <v>-0.2855262363852235</v>
+        <v>0.05600008536843275</v>
       </c>
       <c r="F93">
-        <v>0.04980217316360561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1999247177857154</v>
+      </c>
+      <c r="G93">
+        <v>0.01119107345126756</v>
+      </c>
+      <c r="H93">
+        <v>-0.03336925341768507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2426827723941613</v>
+        <v>0.2601102977873465</v>
       </c>
       <c r="C94">
-        <v>-0.1111945225752875</v>
+        <v>0.1233543100059383</v>
       </c>
       <c r="D94">
-        <v>0.008920981491465606</v>
+        <v>0.02881324893352286</v>
       </c>
       <c r="E94">
-        <v>0.004163791255661718</v>
+        <v>0.03631675767916068</v>
       </c>
       <c r="F94">
-        <v>-0.3372997176563822</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1188268959876515</v>
+      </c>
+      <c r="G94">
+        <v>0.2844662760086595</v>
+      </c>
+      <c r="H94">
+        <v>0.04825300303219573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1347248728852087</v>
+        <v>0.09106066249592769</v>
       </c>
       <c r="C95">
-        <v>-0.008013910996116379</v>
+        <v>0.05363420515504158</v>
       </c>
       <c r="D95">
-        <v>-0.1356582736287681</v>
+        <v>0.08383628305652494</v>
       </c>
       <c r="E95">
-        <v>0.06440540182165469</v>
+        <v>0.07658254910028622</v>
       </c>
       <c r="F95">
-        <v>0.09859203028002365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04063282899641972</v>
+      </c>
+      <c r="G95">
+        <v>-0.1096291278889761</v>
+      </c>
+      <c r="H95">
+        <v>0.1127945221384118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1898113341090233</v>
+        <v>0.1761960850698188</v>
       </c>
       <c r="C98">
-        <v>-0.05897269667467493</v>
+        <v>0.08863509778263096</v>
       </c>
       <c r="D98">
-        <v>0.005191736020888845</v>
+        <v>-0.008263975661643401</v>
       </c>
       <c r="E98">
-        <v>-0.09158778317041028</v>
+        <v>0.06230562392962374</v>
       </c>
       <c r="F98">
-        <v>0.07190542344495787</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02575832022351131</v>
+      </c>
+      <c r="G98">
+        <v>-0.2042499140720113</v>
+      </c>
+      <c r="H98">
+        <v>-0.4030710415797722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005184521229899931</v>
+        <v>0.01432539224547877</v>
       </c>
       <c r="C101">
-        <v>-0.03097843274630826</v>
+        <v>0.001870844267020855</v>
       </c>
       <c r="D101">
-        <v>-0.04805981564676857</v>
+        <v>0.004102736802980916</v>
       </c>
       <c r="E101">
-        <v>0.06313085487189982</v>
+        <v>-0.004131540432288667</v>
       </c>
       <c r="F101">
-        <v>0.1366575726455419</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03836236422579843</v>
+      </c>
+      <c r="G101">
+        <v>-0.07757981413698174</v>
+      </c>
+      <c r="H101">
+        <v>0.1132363717263462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09895796771677567</v>
+        <v>0.1160213680093437</v>
       </c>
       <c r="C102">
-        <v>-0.02804320892732845</v>
+        <v>0.05204706495904256</v>
       </c>
       <c r="D102">
-        <v>-0.03829313294347665</v>
+        <v>0.03637204316057137</v>
       </c>
       <c r="E102">
-        <v>0.04950327288557262</v>
+        <v>0.002101580671263783</v>
       </c>
       <c r="F102">
-        <v>-0.1309325488204893</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06350629834589025</v>
+      </c>
+      <c r="G102">
+        <v>0.1230130936615601</v>
+      </c>
+      <c r="H102">
+        <v>0.01772150093556326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02660556873356881</v>
+        <v>0.02483442877777413</v>
       </c>
       <c r="C103">
-        <v>-0.007074840071581529</v>
+        <v>0.01200335373816951</v>
       </c>
       <c r="D103">
-        <v>-0.003817744887282681</v>
+        <v>0.009417109196986817</v>
       </c>
       <c r="E103">
-        <v>-0.0008418956081085847</v>
+        <v>-0.006668369481856782</v>
       </c>
       <c r="F103">
-        <v>-0.03952299594436936</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01305058640911758</v>
+      </c>
+      <c r="G103">
+        <v>0.01412907930458615</v>
+      </c>
+      <c r="H103">
+        <v>0.01674170811667279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3586541085666946</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9116696194171419</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02292354424529818</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01834838641773563</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.165625453097259</v>
+      </c>
+      <c r="G104">
+        <v>0.05621975183834885</v>
+      </c>
+      <c r="H104">
+        <v>0.0007043181609587625</v>
       </c>
     </row>
   </sheetData>
